--- a/Simulation Results/tau2=0.1.xlsx
+++ b/Simulation Results/tau2=0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhchy\Dropbox\2019 Spring\Meta\Code\Results\Testing\All_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAD360-0336-4EC0-9A26-6F175BB27757}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E2689-185C-4A2F-AC34-C8B4B6EEBDC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
   </bookViews>
@@ -11214,6 +11214,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -11227,32 +11253,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21801,6 +21801,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -21814,32 +21840,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21849,7 +21849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BA1-EE21-42C2-9585-3464A8CF9F4B}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E74" sqref="E74:AG109"/>
     </sheetView>
   </sheetViews>
@@ -26077,91 +26077,91 @@
         <v>35</v>
       </c>
       <c r="E45" s="12">
-        <v>0.38300000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F45" s="7">
-        <v>0.38400000000000001</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="G45" s="7">
-        <v>0.29199999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="H45" s="7">
-        <v>0.38400000000000001</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="I45" s="7">
-        <v>0.21299999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="J45" s="7">
-        <v>0.38800000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="K45" s="7">
-        <v>0.373</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="L45" s="7">
-        <v>0.373</v>
+        <v>0.48</v>
       </c>
       <c r="M45" s="7">
-        <v>0.28699999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="N45" s="7">
-        <v>0.65500000000000003</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="O45" s="7">
-        <v>0.28399999999999997</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="P45" s="7">
-        <v>0.37</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Q45" s="7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="X45" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0.501</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA45" s="7">
         <v>0.36899999999999999</v>
       </c>
-      <c r="R45" s="7">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="S45" s="7">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="V45" s="7">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="Y45" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="Z45" s="7">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="AA45" s="7">
-        <v>0.30499999999999999</v>
-      </c>
       <c r="AB45" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AC45" s="7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="7">
         <v>0</v>
       </c>
       <c r="AE45" s="7">
-        <v>0.16700000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AF45" s="7">
-        <v>0.159</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="AG45" s="7">
-        <v>0.38800000000000001</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
@@ -27225,91 +27225,91 @@
         <v>35</v>
       </c>
       <c r="E57" s="12">
-        <v>0.23400000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F57" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.187</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.223</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0.219</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="V57" s="7">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G57" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="J57" s="7">
-        <v>0.219</v>
-      </c>
-      <c r="K57" s="7">
-        <v>1</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0.187</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R57" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="S57" s="7">
-        <v>0.217</v>
-      </c>
-      <c r="T57" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="U57" s="7">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="V57" s="7">
-        <v>0.20799999999999999</v>
-      </c>
       <c r="W57" s="7">
-        <v>0.221</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="X57" s="7">
-        <v>0.222</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="Y57" s="7">
-        <v>1</v>
+        <v>0.215</v>
       </c>
       <c r="Z57" s="7">
-        <v>0.20699999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="AA57" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AB57" s="7">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC57" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD57" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AE57" s="7">
-        <v>0.14099999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AF57" s="7">
-        <v>0.151</v>
+        <v>0.107</v>
       </c>
       <c r="AG57" s="7">
-        <v>0.221</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -28373,58 +28373,58 @@
         <v>35</v>
       </c>
       <c r="E69" s="12">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F69" s="7">
         <v>0.14499999999999999</v>
       </c>
       <c r="G69" s="7">
-        <v>0.114</v>
+        <v>0.129</v>
       </c>
       <c r="H69" s="7">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="I69" s="7">
-        <v>0.14599999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J69" s="7">
-        <v>0.151</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
       </c>
       <c r="L69" s="7">
-        <v>0.11899999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="M69" s="7">
-        <v>0.13100000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="N69" s="7">
-        <v>4.2999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O69" s="7">
         <v>0.13200000000000001</v>
       </c>
       <c r="P69" s="7">
-        <v>0.16600000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="Q69" s="7">
-        <v>0.16600000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="R69" s="7">
-        <v>0.112</v>
+        <v>0.106</v>
       </c>
       <c r="S69" s="7">
-        <v>0.104</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="T69" s="7">
-        <v>0.113</v>
+        <v>0.106</v>
       </c>
       <c r="U69" s="7">
-        <v>0.113</v>
+        <v>0.105</v>
       </c>
       <c r="V69" s="7">
-        <v>0.158</v>
+        <v>0.155</v>
       </c>
       <c r="W69" s="7">
         <v>0.13300000000000001</v>
@@ -28439,25 +28439,25 @@
         <v>1</v>
       </c>
       <c r="AA69" s="7">
-        <v>0.13900000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AB69" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC69" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AD69" s="7">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AC69" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AD69" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
       <c r="AE69" s="7">
-        <v>7.6999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AF69" s="7">
-        <v>0.10199999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="AG69" s="7">
-        <v>0.13500000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
@@ -29523,91 +29523,91 @@
         <v>35</v>
       </c>
       <c r="E81" s="12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.107</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0.253</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0.161</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0.161</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="W81" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="X81" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="AA81" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC81" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AD81" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AE81" s="7">
+        <v>0.107</v>
+      </c>
+      <c r="AF81" s="7">
         <v>0.106</v>
       </c>
-      <c r="F81" s="7">
-        <v>0.106</v>
-      </c>
-      <c r="G81" s="7">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0.106</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="J81" s="7">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K81" s="7">
-        <v>1</v>
-      </c>
-      <c r="L81" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="N81" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="O81" s="7">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="P81" s="7">
-        <v>0.128</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0.128</v>
-      </c>
-      <c r="R81" s="7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="S81" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="T81" s="7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="U81" s="7">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="V81" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="W81" s="7">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="X81" s="7">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="Y81" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA81" s="7">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="AB81" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AC81" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AD81" s="7">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AE81" s="7">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AF81" s="7">
-        <v>7.5999999999999998E-2</v>
-      </c>
       <c r="AG81" s="7">
-        <v>0.121</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
@@ -30671,91 +30671,91 @@
         <v>35</v>
       </c>
       <c r="E93" s="12">
-        <v>0.22</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F93" s="7">
-        <v>0.221</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="G93" s="7">
-        <v>0.16900000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="H93" s="7">
-        <v>0.22</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="I93" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="J93" s="7">
-        <v>0.221</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="K93" s="7">
-        <v>0.24199999999999999</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="L93" s="7">
-        <v>0.23300000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="M93" s="7">
-        <v>0.20799999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="N93" s="7">
-        <v>0.113</v>
+        <v>0.153</v>
       </c>
       <c r="O93" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="P93" s="7">
-        <v>0.23300000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="Q93" s="7">
-        <v>0.23899999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="R93" s="7">
-        <v>0.20799999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="S93" s="7">
-        <v>0.214</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="T93" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="U93" s="7">
-        <v>0.20399999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="V93" s="7">
-        <v>0.249</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W93" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="X93" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="Y93" s="7">
-        <v>0.23</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="Z93" s="7">
-        <v>0.23200000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="AA93" s="7">
-        <v>0.21</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AB93" s="7">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC93" s="7">
-        <v>1.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD93" s="7">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AE93" s="7">
-        <v>0.11</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="AF93" s="7">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AG93" s="7">
-        <v>0.23100000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
@@ -31819,91 +31819,91 @@
         <v>35</v>
       </c>
       <c r="E105" s="12">
-        <v>0.4</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F105" s="7">
-        <v>0.40100000000000002</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G105" s="7">
-        <v>0.30599999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="H105" s="7">
-        <v>0.4</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="I105" s="7">
-        <v>0.253</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="J105" s="7">
-        <v>0.4</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="K105" s="7">
-        <v>0.439</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="L105" s="7">
-        <v>0.438</v>
+        <v>0.627</v>
       </c>
       <c r="M105" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="N105" s="7">
-        <v>8.8999999999999996E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="O105" s="7">
-        <v>0.33700000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="P105" s="7">
-        <v>0.42199999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="Q105" s="7">
-        <v>0.41899999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="R105" s="7">
-        <v>0.38700000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="S105" s="7">
-        <v>0.376</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="T105" s="7">
-        <v>0.38500000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="U105" s="7">
-        <v>0.38100000000000001</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="V105" s="7">
-        <v>0.4</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="W105" s="7">
-        <v>0.39600000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="X105" s="7">
-        <v>0.39500000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="Y105" s="7">
-        <v>0.442</v>
+        <v>0.628</v>
       </c>
       <c r="Z105" s="7">
-        <v>0.437</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AA105" s="7">
-        <v>0.33400000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AB105" s="7">
-        <v>1.7999999999999999E-2</v>
+        <v>0.153</v>
       </c>
       <c r="AC105" s="7">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AD105" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE105" s="7">
-        <v>0.16400000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="AF105" s="7">
-        <v>0.16800000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="AG105" s="7">
-        <v>0.41599999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
@@ -32388,6 +32388,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -32401,32 +32427,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
